--- a/data_year/zb/建筑业/按资质等级分专业承包建筑业企业利润总额.xlsx
+++ b/data_year/zb/建筑业/按资质等级分专业承包建筑业企业利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,152 +458,57 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>537449.2</v>
+        <v>1878683</v>
       </c>
       <c r="C2" t="n">
-        <v>815715.5</v>
+        <v>2165465</v>
       </c>
       <c r="D2" t="n">
-        <v>1957145.1</v>
+        <v>5482209</v>
       </c>
       <c r="E2" t="n">
-        <v>603980.4</v>
+        <v>1438061</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>672954.9</v>
+        <v>2394586.9</v>
       </c>
       <c r="C3" t="n">
-        <v>930201.1</v>
+        <v>2246909.6</v>
       </c>
       <c r="D3" t="n">
-        <v>2310109.4</v>
+        <v>6253581.7</v>
       </c>
       <c r="E3" t="n">
-        <v>706953.4</v>
+        <v>1612085.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>897507.8</v>
+        <v>2967068.5</v>
       </c>
       <c r="C4" t="n">
-        <v>1053268.1</v>
+        <v>2239522.2</v>
       </c>
       <c r="D4" t="n">
-        <v>2821976</v>
+        <v>6973816.6</v>
       </c>
       <c r="E4" t="n">
-        <v>871200.1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1175856.8</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1615594.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3985411.4</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1193959.7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1314431.8</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1883871.4</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4497215.6</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1298912.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1878683</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2165465</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5482209</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1438061</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2394586.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2246909.6</v>
-      </c>
-      <c r="D8" t="n">
-        <v>6253581.7</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1612085.2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2967068.5</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2239522.2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6973816.6</v>
-      </c>
-      <c r="E9" t="n">
         <v>1767225.9</v>
       </c>
     </row>
